--- a/Çalışma_Özeti.xlsx
+++ b/Çalışma_Özeti.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">Tarih</t>
   </si>
@@ -40,22 +40,48 @@
     <t xml:space="preserve">10.21</t>
   </si>
   <si>
+    <t xml:space="preserve">11.24</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yazılımı test etmek hakkında genel bilgi edinme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular.js detaylı bilgi edinme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular testin hakkında ve npm kullanımı</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="166" formatCode="HH\.MM"/>
   </numFmts>
   <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -143,7 +169,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -153,11 +179,23 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -237,15 +275,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="G232" activeCellId="0" sqref="G232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.31"/>
@@ -277,10 +315,59 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>63</v>
+      </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>43034</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>0.63125</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>43035</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>43036</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Çalışma_Özeti.xlsx
+++ b/Çalışma_Özeti.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t xml:space="preserve">Tarih</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">16.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Angular.js detaylı bilgi edinme</t>
+    <t xml:space="preserve">Angular.js bilgi edinme</t>
   </si>
   <si>
     <t xml:space="preserve">10.34</t>
@@ -64,17 +64,25 @@
     <t xml:space="preserve">01.34</t>
   </si>
   <si>
-    <t xml:space="preserve">Angular testin hakkında ve npm kullanımı</t>
+    <t xml:space="preserve">Angular hakkında ve TypeScript kullanımı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular Dosya Yapıları ve örnek proje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular Test Etme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="HH\.MM"/>
+    <numFmt numFmtId="166" formatCode="HH.MM"/>
+    <numFmt numFmtId="167" formatCode="[HH]:MM:SS"/>
+    <numFmt numFmtId="168" formatCode="HH:MM:SS"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -169,7 +177,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -182,6 +190,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -194,8 +206,44 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -275,10 +323,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G232" activeCellId="0" sqref="G232"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -318,56 +366,108 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>63</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="5" t="n">
         <v>43034</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="6" t="n">
         <v>0.63125</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="8" t="n">
+        <v>99</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="5" t="n">
         <v>43035</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="5" t="n">
         <v>43036</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="8" t="n">
+        <v>93</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
+        <v>43036</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>0.506944444444444</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>0.5875</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>114</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="n">
+        <v>43037</v>
+      </c>
+      <c r="B7" s="14" t="n">
+        <v>0.590277777777778</v>
+      </c>
+      <c r="C7" s="15" t="n">
+        <v>0.642361111111111</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="n">
+        <v>43037</v>
+      </c>
+      <c r="B8" s="15" t="n">
+        <v>0.804166666666667</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Çalışma_Özeti.xlsx
+++ b/Çalışma_Özeti.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t xml:space="preserve">Tarih</t>
   </si>
@@ -70,19 +70,24 @@
     <t xml:space="preserve">Angular Dosya Yapıları ve örnek proje</t>
   </si>
   <si>
-    <t xml:space="preserve">Angular Test Etme</t>
+    <t xml:space="preserve">Angular Projesi Test Etme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dizin Oluşturma / Kaynak Araştırması</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dizin Oluşturma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="166" formatCode="HH.MM"/>
-    <numFmt numFmtId="167" formatCode="[HH]:MM:SS"/>
-    <numFmt numFmtId="168" formatCode="HH:MM:SS"/>
+    <numFmt numFmtId="167" formatCode="HH.MM"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -177,7 +182,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -230,20 +235,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -323,10 +316,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -442,13 +435,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="9" t="n">
         <v>43037</v>
       </c>
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="13" t="n">
         <v>0.590277777777778</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="13" t="n">
         <v>0.642361111111111</v>
       </c>
       <c r="D7" s="11" t="n">
@@ -459,15 +452,71 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="9" t="n">
         <v>43037</v>
       </c>
-      <c r="B8" s="15" t="n">
+      <c r="B8" s="13" t="n">
         <v>0.804166666666667</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="16" t="s">
+      <c r="C8" s="13" t="n">
+        <v>0.856944444444444</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>76</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>43041</v>
+      </c>
+      <c r="B9" s="13" t="n">
+        <v>0.503472222222222</v>
+      </c>
+      <c r="C9" s="13" t="n">
+        <v>0.607638888888889</v>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
+        <v>43041</v>
+      </c>
+      <c r="B10" s="13" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C10" s="13" t="n">
+        <v>0.766666666666667</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>144</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
+        <v>43042</v>
+      </c>
+      <c r="B11" s="13" t="n">
+        <v>0.563888888888889</v>
+      </c>
+      <c r="C11" s="13" t="n">
+        <v>0.576388888888889</v>
+      </c>
+      <c r="D11" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
